--- a/biology/Mycologie/Parasite_diécique/Parasite_diécique.xlsx
+++ b/biology/Mycologie/Parasite_diécique/Parasite_diécique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasite_di%C3%A9cique</t>
+          <t>Parasite_diécique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un parasite diécique, ou hétéroécique ou hétéroxène,  est un parasite qui utilise au moins deux hôtes d'espèces différentes au cours de son cycle biologique : l'« hôte primaire » est celui dans lequel le parasite passe sa vie adulte, l'autre est appelé « hôte secondaire ». À l'inverse, un parasite qui peut développer son cycle biologique sur un seul hôte est dit « monoécique ». De nombreux champignons du type « rouille » fournissent d'excellents exemples de cycle biologique diécique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un parasite diécique, ou hétéroécique ou hétéroxène,  est un parasite qui utilise au moins deux hôtes d'espèces différentes au cours de son cycle biologique : l'« hôte primaire » est celui dans lequel le parasite passe sa vie adulte, l'autre est appelé « hôte secondaire ». À l'inverse, un parasite qui peut développer son cycle biologique sur un seul hôte est dit « monoécique ». De nombreux champignons du type « rouille » fournissent d'excellents exemples de cycle biologique diécique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parasite_di%C3%A9cique</t>
+          <t>Parasite_diécique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples de champignon parasites diéciques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gymnosporangium juniperi-virginianae (rouille de Virginie du pommier ou rouille du genévrier) ; l'hôte primaire est le genévrier (telial) ; hôtes secondaires : pommier, poirier ou aubépine (Crataegus) (aecial) ;
 Cronartium ribicola(rouille vésiculeuse du pin blanc) ; les hôtes primaires sont les espèces de pins du sous-genre Strobus, hôtes secondaires, les Groseilliers (genre Ribes) ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parasite_di%C3%A9cique</t>
+          <t>Parasite_diécique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène de l'« hétéroécie » a été découvert en premier en 1863 par le botaniste danois, Anders Sandøe Ørsted[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène de l'« hétéroécie » a été découvert en premier en 1863 par le botaniste danois, Anders Sandøe Ørsted.
 </t>
         </is>
       </c>
